--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CD/15/seed1/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CD/15/seed1/result_data_KNN.xlsx
@@ -502,7 +502,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>-12.114</v>
+        <v>-12.228</v>
       </c>
       <c r="D4" t="n">
         <v>-8.23</v>
@@ -536,7 +536,7 @@
         <v>5.51</v>
       </c>
       <c r="C6" t="n">
-        <v>-12.276</v>
+        <v>-11.864</v>
       </c>
       <c r="D6" t="n">
         <v>-8.08</v>
@@ -553,10 +553,10 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.568</v>
+        <v>-12.793</v>
       </c>
       <c r="D7" t="n">
-        <v>-7.694</v>
+        <v>-7.518000000000001</v>
       </c>
       <c r="E7" t="n">
         <v>17.28</v>
@@ -641,7 +641,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-7.672</v>
+        <v>-7.562</v>
       </c>
       <c r="E12" t="n">
         <v>17.26</v>
@@ -692,7 +692,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-7.92</v>
+        <v>-8.423</v>
       </c>
       <c r="E15" t="n">
         <v>16.67</v>
@@ -706,7 +706,7 @@
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-13.568</v>
+        <v>-13.312</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -774,10 +774,10 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-11.794</v>
+        <v>-12.047</v>
       </c>
       <c r="D20" t="n">
-        <v>-8.602</v>
+        <v>-7.994</v>
       </c>
       <c r="E20" t="n">
         <v>16.97</v>
@@ -794,7 +794,7 @@
         <v>-13.13</v>
       </c>
       <c r="D21" t="n">
-        <v>-8.238</v>
+        <v>-7.967000000000001</v>
       </c>
       <c r="E21" t="n">
         <v>16.94</v>
@@ -811,7 +811,7 @@
         <v>-15.07</v>
       </c>
       <c r="D22" t="n">
-        <v>-7.846000000000001</v>
+        <v>-7.906000000000001</v>
       </c>
       <c r="E22" t="n">
         <v>16.18</v>
@@ -828,7 +828,7 @@
         <v>-12.89</v>
       </c>
       <c r="D23" t="n">
-        <v>-7.956</v>
+        <v>-7.997</v>
       </c>
       <c r="E23" t="n">
         <v>17.37</v>
@@ -910,7 +910,7 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-12.588</v>
+        <v>-12.848</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
@@ -927,10 +927,10 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.724</v>
+        <v>-12.035</v>
       </c>
       <c r="D29" t="n">
-        <v>-7.497999999999999</v>
+        <v>-7.325</v>
       </c>
       <c r="E29" t="n">
         <v>17.76</v>
@@ -978,7 +978,7 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.612</v>
+        <v>-13.222</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
@@ -1015,7 +1015,7 @@
         <v>-11.49</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.470000000000001</v>
+        <v>-7.936999999999999</v>
       </c>
       <c r="E34" t="n">
         <v>16.39</v>
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.172</v>
+        <v>-12.151</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-8.052000000000001</v>
+        <v>-8.107000000000001</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1168,7 +1168,7 @@
         <v>-11.77</v>
       </c>
       <c r="D43" t="n">
-        <v>-7.586</v>
+        <v>-7.795</v>
       </c>
       <c r="E43" t="n">
         <v>16.64</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.188</v>
+        <v>-7.580999999999999</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.706</v>
+        <v>-7.498</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1216,10 +1216,10 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-14.402</v>
+        <v>-13.549</v>
       </c>
       <c r="D46" t="n">
-        <v>-8.494</v>
+        <v>-8.605</v>
       </c>
       <c r="E46" t="n">
         <v>16.03</v>
@@ -1287,7 +1287,7 @@
         <v>-14.51</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.215999999999999</v>
+        <v>-8.178000000000001</v>
       </c>
       <c r="E50" t="n">
         <v>16.71</v>
@@ -1301,10 +1301,10 @@
         <v>4.98</v>
       </c>
       <c r="C51" t="n">
-        <v>-11.956</v>
+        <v>-12.199</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.254</v>
+        <v>-7.598999999999999</v>
       </c>
       <c r="E51" t="n">
         <v>17.2</v>
@@ -1318,7 +1318,7 @@
         <v>6.39</v>
       </c>
       <c r="C52" t="n">
-        <v>-11.428</v>
+        <v>-11.614</v>
       </c>
       <c r="D52" t="n">
         <v>-6.93</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.966</v>
+        <v>-13.844</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1437,7 +1437,7 @@
         <v>4.58</v>
       </c>
       <c r="C59" t="n">
-        <v>-12.458</v>
+        <v>-12.718</v>
       </c>
       <c r="D59" t="n">
         <v>-9.48</v>
@@ -1488,7 +1488,7 @@
         <v>4.28</v>
       </c>
       <c r="C62" t="n">
-        <v>-14.034</v>
+        <v>-13.737</v>
       </c>
       <c r="D62" t="n">
         <v>-8.5</v>
@@ -1556,10 +1556,10 @@
         <v>5.18</v>
       </c>
       <c r="C66" t="n">
-        <v>-11.414</v>
+        <v>-11.038</v>
       </c>
       <c r="D66" t="n">
-        <v>-7.63</v>
+        <v>-7.683000000000002</v>
       </c>
       <c r="E66" t="n">
         <v>17.07</v>
@@ -1576,7 +1576,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-6.994</v>
+        <v>-7.194</v>
       </c>
       <c r="E67" t="n">
         <v>18.14</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.964</v>
+        <v>-12.401</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1692,7 +1692,7 @@
         <v>7.45</v>
       </c>
       <c r="C74" t="n">
-        <v>-12.092</v>
+        <v>-12.144</v>
       </c>
       <c r="D74" t="n">
         <v>-8.550000000000001</v>
@@ -1780,7 +1780,7 @@
         <v>-9.779999999999999</v>
       </c>
       <c r="D79" t="n">
-        <v>-7.732000000000001</v>
+        <v>-7.465000000000001</v>
       </c>
       <c r="E79" t="n">
         <v>18.4</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.492000000000001</v>
+        <v>-8.266</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1998,10 +1998,10 @@
         <v>6.16</v>
       </c>
       <c r="C92" t="n">
-        <v>-11.03</v>
+        <v>-11.037</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.609999999999999</v>
+        <v>-6.772</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2086,7 +2086,7 @@
         <v>-13.93</v>
       </c>
       <c r="D97" t="n">
-        <v>-8.470000000000002</v>
+        <v>-8.312999999999999</v>
       </c>
       <c r="E97" t="n">
         <v>15.78</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.614</v>
+        <v>-12.706</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
